--- a/Datos_2020_2021/Comp SComún_2020-2021 CS-FT.xlsx
+++ b/Datos_2020_2021/Comp SComún_2020-2021 CS-FT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariajosezunigabasualto/MJZ/CTP2021/SARDINA_COMUN/INFORME_FINAL/Datos_2020_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F29501-E746-BE40-B60E-3C7EE0388F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD348F07-CBAC-0A46-96CD-9FE5512E5C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="660" windowWidth="17660" windowHeight="21020" tabRatio="658" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19800" yWindow="1080" windowWidth="32680" windowHeight="27140" tabRatio="658" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AÑO_2020-2021" sheetId="11" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="CS4_2020" sheetId="12521" r:id="rId3"/>
     <sheet name="CS1_2021" sheetId="20" r:id="rId4"/>
     <sheet name="CS2_2021" sheetId="12531" r:id="rId5"/>
+    <sheet name="comparación año previo" sheetId="12532" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="49">
   <si>
     <t xml:space="preserve">  TALLAS</t>
   </si>
@@ -248,6 +249,24 @@
       </rPr>
       <t xml:space="preserve">  Composición en numero por grupo de edad en la captura de sardina común en</t>
     </r>
+  </si>
+  <si>
+    <t>Lmedia</t>
+  </si>
+  <si>
+    <t>2019/2020</t>
+  </si>
+  <si>
+    <t>2020/2021</t>
+  </si>
+  <si>
+    <t>Wmed</t>
+  </si>
+  <si>
+    <t>Talla</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -565,7 +584,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -730,6 +749,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares [0]_166AREN" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1200,7 +1220,703 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Composición de edad </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'comparación año previo'!$D$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1961235459.3436723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1813940920.5079064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3505111512.4753752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1046003605.687871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63533885.86517515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A3F-D648-B2CD-81879B95701C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'comparación año previo'!$D$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16830890697.110643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1825343285.3564713</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1670396755.3419147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1324731945.9727998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77722088.246661022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1A3F-D648-B2CD-81879B95701C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="267066047"/>
+        <c:axId val="266477503"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="267066047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266477503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="266477503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267066047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AÑO_2020-2021'!$D$45:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.096295178050273</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.380470416570448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.901973784060131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.811546665704711</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.260230474999638</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AÑO_2020-2021'!$D$47:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.4669781629129197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.330218420402439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.934677358670854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.765743315382132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.157163510950781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-47E4-6046-84F1-7540A71A1200}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="44828383"/>
+        <c:axId val="45075519"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="44828383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45075519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="45075519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44828383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -1583,7 +2299,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -1966,7 +2682,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -2348,7 +3064,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -2729,6 +3445,4089 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Talla media a la edad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'comparación año previo'!$D$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.5269684592223758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.365516574243509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.606783987681686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.503774587810025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.161546265624981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9D7-4544-9C40-E87EAC409AAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'comparación año previo'!$D$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.096295178050273</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.380470416570448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.901973784060131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.811546665704711</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.260230474999638</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B9D7-4544-9C40-E87EAC409AAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="44459663"/>
+        <c:axId val="44460063"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="44459663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44460063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="44460063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44459663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Peso medio a la</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> edad</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'comparación año previo'!$D$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.3088176694373743</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.940002849564374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.510907983794741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.704482976564858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.076524123988634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E27E-8545-9A20-1C339FFEAE6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'comparación año previo'!$D$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.4669781629129197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.330218420402439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.934677358670854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.765743315382132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.157163510950781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E27E-8545-9A20-1C339FFEAE6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="212520127"/>
+        <c:axId val="212437775"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="212520127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212437775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="212437775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212520127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Composición de tallas año biológico</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'comparación año previo'!$C$16:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>588.67999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1324.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2684.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>318644.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1235908.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25388856.050000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48089851.620000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54742194.439999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>119600519.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161345204.37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>183944305.92999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240140558.43999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>313178592.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>324256445.81</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>284030439.34999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>266319517.44999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>361994960.21999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>401447608.63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>471245990.09999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>529661654.26999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>504644212.36000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>597995138.44000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>800147049.47000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>917846675.33000016</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>796937349.99000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>609897526.22000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>302736901.75999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>65972207.300000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3865720.71</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>340716.67</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2496036.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B1E-C849-A8F5-BE0D107DFC27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'comparación año previo'!$D$16:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>517796.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1760174.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26083342.352538951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83569427.398964241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>157016495.11954263</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>182673896.65662917</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>251638838.76811796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>340660044.04537201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>507451476.31135619</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>699471589.16324484</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1357268751.7602148</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1990843567.5254869</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2781051143.6649323</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3211290932.6304216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2786389986.611855</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1988448167.0443454</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>996796703.05387831</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>461972972.92309266</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>352916054.57329404</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>320967219.92046231</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>359621651.59606713</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>464331304.76479316</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>563309618.07468271</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>703865597.51054072</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>647340903.19357061</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>332050728.71743596</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92335461.684807912</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23477543.181181367</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25013382.614257794</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14212500.500554677</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4737500.1668515587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9B1E-C849-A8F5-BE0D107DFC27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="14255359"/>
+        <c:axId val="14257007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="14255359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14257007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="14257007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14255359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2847,6 +7646,42 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1231699</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>36487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1570366</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>167115</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C6764B-27E9-2B44-AEFF-DD83A7B4D7EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3017,6 +7852,155 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B60F3E-B3A8-7B44-9493-AA6510E9E10C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1807BD68-1D4D-7448-84F9-7ED3D92724A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>831850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686D805E-A7FE-6E47-BABC-2C1DA0412D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>882650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0189EEB4-9FC3-9948-8A83-C2DBE6ED9293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4985,8 +9969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="42" zoomScaleNormal="42" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView showZeros="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
@@ -10990,8 +15974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="35" zoomScaleNormal="35" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54"/>
+    <sheetView showZeros="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
@@ -12543,11 +17527,26 @@
       <c r="A50" s="27"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
+      <c r="D50" s="50">
+        <f>+SQRT(D46)</f>
+        <v>1.0718085516672924</v>
+      </c>
+      <c r="E50" s="50">
+        <f t="shared" ref="E50:H50" si="0">+SQRT(E46)</f>
+        <v>0.88179244590192363</v>
+      </c>
+      <c r="F50" s="50">
+        <f t="shared" si="0"/>
+        <v>0.89101783910699128</v>
+      </c>
+      <c r="G50" s="50">
+        <f t="shared" si="0"/>
+        <v>0.93942629059549343</v>
+      </c>
+      <c r="H50" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
       <c r="K50" s="27"/>
@@ -12633,27 +17632,27 @@
         <v>72.998203148736096</v>
       </c>
       <c r="D54" s="58" t="str">
-        <f t="shared" ref="D54:I54" si="0">D6</f>
+        <f t="shared" ref="D54:I54" si="1">D6</f>
         <v>O</v>
       </c>
       <c r="E54" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>I</v>
       </c>
       <c r="F54" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>II</v>
       </c>
       <c r="G54" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>III</v>
       </c>
       <c r="H54" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>IV</v>
       </c>
       <c r="I54" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>V</v>
       </c>
       <c r="J54" s="27"/>
@@ -12672,27 +17671,27 @@
         <v>&lt; 11,5 cm =73%</v>
       </c>
       <c r="D55" s="47">
-        <f t="shared" ref="D55:I55" si="1">SUM(D8:D24)/1000000000</f>
+        <f t="shared" ref="D55:I55" si="2">SUM(D8:D24)/1000000000</f>
         <v>8.600222575158341</v>
       </c>
       <c r="E55" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F55" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G55" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H55" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I55" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J55" s="47">
@@ -12720,27 +17719,27 @@
         <v>29</v>
       </c>
       <c r="D56" s="47">
-        <f t="shared" ref="D56:I56" si="2">SUM(D25:D42)/1000000000</f>
+        <f t="shared" ref="D56:I56" si="3">SUM(D25:D42)/1000000000</f>
         <v>1.7138877671877668</v>
       </c>
       <c r="E56" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6364108864063438</v>
       </c>
       <c r="F56" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.52358948310487619</v>
       </c>
       <c r="G56" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30256859577740586</v>
       </c>
       <c r="H56" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.737500166851559E-3</v>
       </c>
       <c r="I56" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J56" s="47">
@@ -14834,4 +19833,534 @@
   <drawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CC97B0-48E1-1246-B832-2170AD4EDB1D}">
+  <dimension ref="B3:H49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="90">
+        <v>9.5269684592223758</v>
+      </c>
+      <c r="E3" s="90">
+        <v>12.365516574243509</v>
+      </c>
+      <c r="F3" s="90">
+        <v>14.606783987681686</v>
+      </c>
+      <c r="G3" s="90">
+        <v>15.503774587810025</v>
+      </c>
+      <c r="H3" s="90">
+        <v>16.161546265624981</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="49">
+        <v>10.096295178050273</v>
+      </c>
+      <c r="E4" s="49">
+        <v>12.380470416570448</v>
+      </c>
+      <c r="F4" s="49">
+        <v>14.901973784060131</v>
+      </c>
+      <c r="G4" s="49">
+        <v>15.811546665704711</v>
+      </c>
+      <c r="H4" s="49">
+        <v>16.260230474999638</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="54">
+        <v>7.3088176694373743</v>
+      </c>
+      <c r="E7" s="54">
+        <v>15.940002849564374</v>
+      </c>
+      <c r="F7" s="54">
+        <v>26.510907983794741</v>
+      </c>
+      <c r="G7" s="54">
+        <v>31.704482976564858</v>
+      </c>
+      <c r="H7" s="54">
+        <v>36.076524123988634</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="54">
+        <v>8.4669781629129197</v>
+      </c>
+      <c r="E8" s="54">
+        <v>16.330218420402439</v>
+      </c>
+      <c r="F8" s="54">
+        <v>28.934677358670854</v>
+      </c>
+      <c r="G8" s="54">
+        <v>34.765743315382132</v>
+      </c>
+      <c r="H8" s="54">
+        <v>38.157163510950781</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>1961235459.3436723</v>
+      </c>
+      <c r="E11">
+        <v>1813940920.5079064</v>
+      </c>
+      <c r="F11">
+        <v>3505111512.4753752</v>
+      </c>
+      <c r="G11">
+        <v>1046003605.687871</v>
+      </c>
+      <c r="H11">
+        <v>63533885.86517515</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>16830890697.110643</v>
+      </c>
+      <c r="E12">
+        <v>1825343285.3564713</v>
+      </c>
+      <c r="F12">
+        <v>1670396755.3419147</v>
+      </c>
+      <c r="G12">
+        <v>1324731945.9727998</v>
+      </c>
+      <c r="H12">
+        <v>77722088.246661022</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>3.5</v>
+      </c>
+      <c r="C17">
+        <v>588.67999999999995</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>1324.97</v>
+      </c>
+      <c r="D18">
+        <v>517796.31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>4.5</v>
+      </c>
+      <c r="C19">
+        <v>2684.29</v>
+      </c>
+      <c r="D19">
+        <v>1760174.19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>318644.18</v>
+      </c>
+      <c r="D20">
+        <v>26083342.352538951</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>5.5</v>
+      </c>
+      <c r="C21">
+        <v>1235908.94</v>
+      </c>
+      <c r="D21">
+        <v>83569427.398964241</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>25388856.050000001</v>
+      </c>
+      <c r="D22">
+        <v>157016495.11954263</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>6.5</v>
+      </c>
+      <c r="C23">
+        <v>48089851.620000005</v>
+      </c>
+      <c r="D23">
+        <v>182673896.65662917</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>54742194.439999998</v>
+      </c>
+      <c r="D24">
+        <v>251638838.76811796</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>7.5</v>
+      </c>
+      <c r="C25">
+        <v>119600519.12</v>
+      </c>
+      <c r="D25">
+        <v>340660044.04537201</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>161345204.37</v>
+      </c>
+      <c r="D26">
+        <v>507451476.31135619</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>8.5</v>
+      </c>
+      <c r="C27">
+        <v>183944305.92999998</v>
+      </c>
+      <c r="D27">
+        <v>699471589.16324484</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>240140558.43999997</v>
+      </c>
+      <c r="D28">
+        <v>1357268751.7602148</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>9.5</v>
+      </c>
+      <c r="C29">
+        <v>313178592.38</v>
+      </c>
+      <c r="D29">
+        <v>1990843567.5254869</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>324256445.81</v>
+      </c>
+      <c r="D30">
+        <v>2781051143.6649323</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>10.5</v>
+      </c>
+      <c r="C31">
+        <v>284030439.34999996</v>
+      </c>
+      <c r="D31">
+        <v>3211290932.6304216</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>266319517.44999999</v>
+      </c>
+      <c r="D32">
+        <v>2786389986.611855</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>11.5</v>
+      </c>
+      <c r="C33">
+        <v>361994960.21999997</v>
+      </c>
+      <c r="D33">
+        <v>1988448167.0443454</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>401447608.63</v>
+      </c>
+      <c r="D34">
+        <v>996796703.05387831</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>12.5</v>
+      </c>
+      <c r="C35">
+        <v>471245990.09999996</v>
+      </c>
+      <c r="D35">
+        <v>461972972.92309266</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>529661654.26999998</v>
+      </c>
+      <c r="D36">
+        <v>352916054.57329404</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>13.5</v>
+      </c>
+      <c r="C37">
+        <v>504644212.36000001</v>
+      </c>
+      <c r="D37">
+        <v>320967219.92046231</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>597995138.44000006</v>
+      </c>
+      <c r="D38">
+        <v>359621651.59606713</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>14.5</v>
+      </c>
+      <c r="C39">
+        <v>800147049.47000003</v>
+      </c>
+      <c r="D39">
+        <v>464331304.76479316</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>917846675.33000016</v>
+      </c>
+      <c r="D40">
+        <v>563309618.07468271</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>15.5</v>
+      </c>
+      <c r="C41">
+        <v>796937349.99000001</v>
+      </c>
+      <c r="D41">
+        <v>703865597.51054072</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>609897526.22000003</v>
+      </c>
+      <c r="D42">
+        <v>647340903.19357061</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>16.5</v>
+      </c>
+      <c r="C43">
+        <v>302736901.75999999</v>
+      </c>
+      <c r="D43">
+        <v>332050728.71743596</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>17</v>
+      </c>
+      <c r="C44">
+        <v>65972207.300000004</v>
+      </c>
+      <c r="D44">
+        <v>92335461.684807912</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>17.5</v>
+      </c>
+      <c r="C45">
+        <v>3865720.71</v>
+      </c>
+      <c r="D45">
+        <v>23477543.181181367</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>340716.67</v>
+      </c>
+      <c r="D46">
+        <v>25013382.614257794</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>18.5</v>
+      </c>
+      <c r="C47">
+        <v>2496036.39</v>
+      </c>
+      <c r="D47">
+        <v>14212500.500554677</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <v>4737500.1668515587</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>19.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>